--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H2">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J2">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N2">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O2">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P2">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q2">
-        <v>15.55808263962722</v>
+        <v>13.285972380275</v>
       </c>
       <c r="R2">
-        <v>140.022743756645</v>
+        <v>119.573751422475</v>
       </c>
       <c r="S2">
-        <v>0.0129223376308313</v>
+        <v>0.01022006976176481</v>
       </c>
       <c r="T2">
-        <v>0.01292233763083131</v>
+        <v>0.01022006976176481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H3">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J3">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.734496</v>
       </c>
       <c r="O3">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P3">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q3">
-        <v>6.555191151484443</v>
+        <v>6.0292622936</v>
       </c>
       <c r="R3">
-        <v>58.99672036336</v>
+        <v>54.2633606424</v>
       </c>
       <c r="S3">
-        <v>0.005444655055267754</v>
+        <v>0.004637935371900469</v>
       </c>
       <c r="T3">
-        <v>0.005444655055267754</v>
+        <v>0.004637935371900469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H4">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J4">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N4">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O4">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P4">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q4">
-        <v>1.190031611618889</v>
+        <v>1.414032256175</v>
       </c>
       <c r="R4">
-        <v>10.71028450457</v>
+        <v>12.726290305575</v>
       </c>
       <c r="S4">
-        <v>0.0009884245143121347</v>
+        <v>0.001087726806127461</v>
       </c>
       <c r="T4">
-        <v>0.0009884245143121349</v>
+        <v>0.001087726806127461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H5">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J5">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N5">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O5">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P5">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q5">
-        <v>2.246868604682222</v>
+        <v>2.961207597075</v>
       </c>
       <c r="R5">
-        <v>20.22181744214</v>
+        <v>26.650868373675</v>
       </c>
       <c r="S5">
-        <v>0.001866219340413157</v>
+        <v>0.002277872281753759</v>
       </c>
       <c r="T5">
-        <v>0.001866219340413157</v>
+        <v>0.002277872281753759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.153678333333333</v>
+        <v>3.820425</v>
       </c>
       <c r="H6">
-        <v>12.461035</v>
+        <v>11.461275</v>
       </c>
       <c r="I6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="J6">
-        <v>0.02267710693885585</v>
+        <v>0.02049663039797357</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N6">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O6">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P6">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q6">
-        <v>1.752339969672222</v>
+        <v>2.954907716250001</v>
       </c>
       <c r="R6">
-        <v>15.77105972705</v>
+        <v>26.59416944625001</v>
       </c>
       <c r="S6">
-        <v>0.001455470398031496</v>
+        <v>0.002273026176427069</v>
       </c>
       <c r="T6">
-        <v>0.001455470398031496</v>
+        <v>0.002273026176427069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J7">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N7">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O7">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P7">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q7">
-        <v>526.5926631073304</v>
+        <v>488.9148832147176</v>
       </c>
       <c r="R7">
-        <v>4739.333967965974</v>
+        <v>4400.233948932459</v>
       </c>
       <c r="S7">
-        <v>0.4373808999612419</v>
+        <v>0.3760917207262839</v>
       </c>
       <c r="T7">
-        <v>0.437380899961242</v>
+        <v>0.376091720726284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J8">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.734496</v>
       </c>
       <c r="O8">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P8">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q8">
         <v>221.8728133533369</v>
@@ -948,10 +948,10 @@
         <v>1996.855320180032</v>
       </c>
       <c r="S8">
-        <v>0.1842846237332323</v>
+        <v>0.1706729146958523</v>
       </c>
       <c r="T8">
-        <v>0.1842846237332323</v>
+        <v>0.1706729146958524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J9">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N9">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O9">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P9">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q9">
-        <v>40.27886533705378</v>
+        <v>52.03543975569622</v>
       </c>
       <c r="R9">
-        <v>362.509788033484</v>
+        <v>468.318957801266</v>
       </c>
       <c r="S9">
-        <v>0.03345509272115989</v>
+        <v>0.04002761778858354</v>
       </c>
       <c r="T9">
-        <v>0.03345509272115989</v>
+        <v>0.04002761778858355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J10">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N10">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O10">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P10">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q10">
-        <v>76.04950748739644</v>
+        <v>108.9704558356527</v>
       </c>
       <c r="R10">
-        <v>684.445567386568</v>
+        <v>980.734102520874</v>
       </c>
       <c r="S10">
-        <v>0.06316571490033665</v>
+        <v>0.08382417400363656</v>
       </c>
       <c r="T10">
-        <v>0.06316571490033666</v>
+        <v>0.08382417400363658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.7675494732291734</v>
+        <v>0.7542622677884155</v>
       </c>
       <c r="J11">
-        <v>0.7675494732291737</v>
+        <v>0.7542622677884157</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N11">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O11">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P11">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q11">
-        <v>59.31125272138444</v>
+        <v>108.7386244416333</v>
       </c>
       <c r="R11">
-        <v>533.80127449246</v>
+        <v>978.6476199747002</v>
       </c>
       <c r="S11">
-        <v>0.04926314191320275</v>
+        <v>0.08364584057405919</v>
       </c>
       <c r="T11">
-        <v>0.04926314191320277</v>
+        <v>0.08364584057405922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H12">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J12">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N12">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O12">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P12">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q12">
-        <v>26.67992051058221</v>
+        <v>106.1044043329433</v>
       </c>
       <c r="R12">
-        <v>240.1192845952399</v>
+        <v>954.9396389964901</v>
       </c>
       <c r="S12">
-        <v>0.02215998904153817</v>
+        <v>0.08161949936935935</v>
       </c>
       <c r="T12">
-        <v>0.02215998904153818</v>
+        <v>0.08161949936935935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H13">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J13">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.734496</v>
       </c>
       <c r="O13">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P13">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q13">
-        <v>11.24122958492444</v>
+        <v>48.15088169077334</v>
       </c>
       <c r="R13">
-        <v>101.17106626432</v>
+        <v>433.35793521696</v>
       </c>
       <c r="S13">
-        <v>0.009336816588960082</v>
+        <v>0.03703946959131051</v>
       </c>
       <c r="T13">
-        <v>0.009336816588960083</v>
+        <v>0.03703946959131051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H14">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J14">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N14">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O14">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P14">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q14">
-        <v>2.040736608648889</v>
+        <v>11.29274139330333</v>
       </c>
       <c r="R14">
-        <v>18.36662947784</v>
+        <v>101.63467253973</v>
       </c>
       <c r="S14">
-        <v>0.001695008831318976</v>
+        <v>0.008686801502950309</v>
       </c>
       <c r="T14">
-        <v>0.001695008831318977</v>
+        <v>0.008686801502950311</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H15">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J15">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N15">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O15">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P15">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q15">
-        <v>3.853063205742221</v>
+        <v>23.64878980633</v>
       </c>
       <c r="R15">
-        <v>34.67756885167999</v>
+        <v>212.83910825697</v>
       </c>
       <c r="S15">
-        <v>0.003200303328555093</v>
+        <v>0.01819153876616763</v>
       </c>
       <c r="T15">
-        <v>0.003200303328555094</v>
+        <v>0.01819153876616763</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.122973333333332</v>
+        <v>30.51067</v>
       </c>
       <c r="H16">
-        <v>21.36892</v>
+        <v>91.53201</v>
       </c>
       <c r="I16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="J16">
-        <v>0.03888804453304685</v>
+        <v>0.1636901460399144</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N16">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O16">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P16">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q16">
-        <v>3.005016246622222</v>
+        <v>23.5984777115</v>
       </c>
       <c r="R16">
-        <v>27.0451462196</v>
+        <v>212.3862994035</v>
       </c>
       <c r="S16">
-        <v>0.002495926742674521</v>
+        <v>0.01815283681012664</v>
       </c>
       <c r="T16">
-        <v>0.002495926742674521</v>
+        <v>0.01815283681012664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H17">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I17">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J17">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N17">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O17">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P17">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q17">
-        <v>1.449555760077111</v>
+        <v>0.9000523160790002</v>
       </c>
       <c r="R17">
-        <v>13.046001840694</v>
+        <v>8.100470844711001</v>
       </c>
       <c r="S17">
-        <v>0.001203981838913895</v>
+        <v>0.0006923541007222064</v>
       </c>
       <c r="T17">
-        <v>0.001203981838913895</v>
+        <v>0.0006923541007222064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H18">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I18">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J18">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.734496</v>
       </c>
       <c r="O18">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P18">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q18">
-        <v>0.6107510361102223</v>
+        <v>0.408449704416</v>
       </c>
       <c r="R18">
-        <v>5.496759324992</v>
+        <v>3.676047339744</v>
       </c>
       <c r="S18">
-        <v>0.0005072817312908578</v>
+        <v>0.0003141948781634703</v>
       </c>
       <c r="T18">
-        <v>0.0005072817312908578</v>
+        <v>0.0003141948781634703</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H19">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I19">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J19">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N19">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O19">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P19">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q19">
-        <v>0.1108759490004445</v>
+        <v>0.095792989083</v>
       </c>
       <c r="R19">
-        <v>0.9978835410040001</v>
+        <v>0.8621369017470001</v>
       </c>
       <c r="S19">
-        <v>9.209209652050709E-05</v>
+        <v>7.368757085252728E-05</v>
       </c>
       <c r="T19">
-        <v>9.209209652050712E-05</v>
+        <v>7.368757085252728E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H20">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I20">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J20">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N20">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O20">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P20">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q20">
-        <v>0.2093420766231111</v>
+        <v>0.200605697487</v>
       </c>
       <c r="R20">
-        <v>1.884078689608</v>
+        <v>1.805451277383</v>
       </c>
       <c r="S20">
-        <v>0.0001738767595675926</v>
+        <v>0.0001543134491208532</v>
       </c>
       <c r="T20">
-        <v>0.0001738767595675927</v>
+        <v>0.0001543134491208532</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3870006666666667</v>
+        <v>0.258813</v>
       </c>
       <c r="H21">
-        <v>1.161002</v>
+        <v>0.776439</v>
       </c>
       <c r="I21">
-        <v>0.002112839463995207</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="J21">
-        <v>0.002112839463995208</v>
+        <v>0.001388535150720334</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N21">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O21">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P21">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q21">
-        <v>0.1632665512511111</v>
+        <v>0.20017891485</v>
       </c>
       <c r="R21">
-        <v>1.46939896126</v>
+        <v>1.80161023365</v>
       </c>
       <c r="S21">
-        <v>0.0001356070377023548</v>
+        <v>0.000153985151861277</v>
       </c>
       <c r="T21">
-        <v>0.0001356070377023549</v>
+        <v>0.000153985151861277</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H22">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I22">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J22">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N22">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O22">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P22">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q22">
-        <v>115.7897727827069</v>
+        <v>38.99744705385201</v>
       </c>
       <c r="R22">
-        <v>1042.107955044362</v>
+        <v>350.977023484668</v>
       </c>
       <c r="S22">
-        <v>0.0961734535516795</v>
+        <v>0.02999830332424997</v>
       </c>
       <c r="T22">
-        <v>0.09617345355167953</v>
+        <v>0.02999830332424997</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H23">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I23">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J23">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.734496</v>
       </c>
       <c r="O23">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P23">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q23">
-        <v>48.78648041400179</v>
+        <v>17.697299854208</v>
       </c>
       <c r="R23">
-        <v>439.0783237260161</v>
+        <v>159.275698687872</v>
       </c>
       <c r="S23">
-        <v>0.04052140526133464</v>
+        <v>0.01361342880506065</v>
       </c>
       <c r="T23">
-        <v>0.04052140526133465</v>
+        <v>0.01361342880506065</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H24">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I24">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J24">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N24">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O24">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P24">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q24">
-        <v>8.856714101943558</v>
+        <v>4.150516534604</v>
       </c>
       <c r="R24">
-        <v>79.71042691749201</v>
+        <v>37.354648811436</v>
       </c>
       <c r="S24">
-        <v>0.007356269572289774</v>
+        <v>0.003192733457280693</v>
       </c>
       <c r="T24">
-        <v>0.007356269572289777</v>
+        <v>0.003192733457280693</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H25">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I25">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J25">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N25">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O25">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P25">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q25">
-        <v>16.72213801886489</v>
+        <v>8.691839270556001</v>
       </c>
       <c r="R25">
-        <v>150.499242169784</v>
+        <v>78.22655343500399</v>
       </c>
       <c r="S25">
-        <v>0.01388918663015343</v>
+        <v>0.006686089746431535</v>
       </c>
       <c r="T25">
-        <v>0.01388918663015344</v>
+        <v>0.006686089746431535</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.91341533333334</v>
+        <v>11.213844</v>
       </c>
       <c r="H26">
-        <v>92.74024600000001</v>
+        <v>33.641532</v>
       </c>
       <c r="I26">
-        <v>0.1687725358349285</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="J26">
-        <v>0.1687725358349286</v>
+        <v>0.0601624206229761</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N26">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O26">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P26">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q26">
-        <v>13.04164861610889</v>
+        <v>8.673347641800001</v>
       </c>
       <c r="R26">
-        <v>117.37483754498</v>
+        <v>78.0601287762</v>
       </c>
       <c r="S26">
-        <v>0.01083222081947117</v>
+        <v>0.006671865289953246</v>
       </c>
       <c r="T26">
-        <v>0.01083222081947117</v>
+        <v>0.006671865289953246</v>
       </c>
     </row>
   </sheetData>
